--- a/Dados/MEF_Andares.xlsx
+++ b/Dados/MEF_Andares.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28325"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD38C73-0A5A-4CD1-B378-3C46AD30F853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284507D2-5C1D-47D4-B8FB-D6AB54A5C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3FA10598-7217-48BB-BC49-90923A5FFBFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -61,13 +61,19 @@
   <si>
     <t>Saída - Motor</t>
   </si>
+  <si>
+    <t>Legenda: Motor - 00 (Parado), 01 (Descendo), 10 (Subindo)</t>
+  </si>
+  <si>
+    <t>Legenda: Andares - 00 (Primeiro Andar),  01 (Segundo Andar), 10 (Terceiro Andar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,16 +109,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DCDF2-C11A-43A0-B663-76C032E659EC}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +475,7 @@
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -492,8 +500,18 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -509,21 +527,31 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -535,24 +563,24 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
@@ -561,165 +589,196 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="5"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -759,20 +818,20 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -782,59 +841,497 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="M1:T1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dados/MEF_Andares.xlsx
+++ b/Dados/MEF_Andares.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28411"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredi\OneDrive\Documentos\MI - Projeto de Circuitos Digitais\PBL_3\PBL_Elevador\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90758DF3-3843-45B6-BF70-C07CC259F4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3016B-4F86-4AE3-BF89-B9A42753C2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F32D2C2C-53CB-48D1-B3BE-0638812CCF8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>b0</t>
   </si>
@@ -69,6 +69,39 @@
   </si>
   <si>
     <t>MOTOR 1</t>
+  </si>
+  <si>
+    <t>P = Porta, 0 = Aberta, 1 = Fechada</t>
+  </si>
+  <si>
+    <t>B0, B1 = Chamadas do elevador codificadas</t>
+  </si>
+  <si>
+    <t>01 = 2º</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 = 1º </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 = 3º </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor </t>
+  </si>
+  <si>
+    <t>00 =Parado</t>
+  </si>
+  <si>
+    <t>01 = Descendo</t>
+  </si>
+  <si>
+    <t>10 = Subindo</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -112,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +155,9 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,15 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57486629-27F7-4045-865B-8A762AC801B2}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -482,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -516,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -533,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -550,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -567,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -584,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -601,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -618,17 +659,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -656,8 +697,42 @@
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -686,8 +761,43 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -716,8 +826,36 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -746,8 +884,45 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -776,8 +951,36 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -806,8 +1009,39 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -836,8 +1070,45 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -866,8 +1137,36 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -896,8 +1195,36 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -926,8 +1253,36 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -956,8 +1311,36 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -986,8 +1369,36 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1016,8 +1427,36 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1046,8 +1485,36 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1076,8 +1543,36 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1106,8 +1601,36 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1136,8 +1659,36 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1166,8 +1717,36 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1196,8 +1775,36 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1226,8 +1833,36 @@
       <c r="M31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1256,8 +1891,36 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1286,8 +1949,36 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1316,8 +2007,36 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1346,8 +2065,36 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -1376,8 +2123,36 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1406,8 +2181,36 @@
       <c r="M37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -1436,8 +2239,36 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1466,8 +2297,36 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -1496,8 +2355,36 @@
       <c r="M40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -1526,8 +2413,36 @@
       <c r="M41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -1556,8 +2471,36 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1586,8 +2529,36 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -1616,8 +2587,36 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1631,7 +2630,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1645,7 +2644,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1660,6 +2659,10 @@
       <c r="L47" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="O13:S13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
